--- a/03_개발일정/개발일정_ 폴리모피즘 조.xlsx
+++ b/03_개발일정/개발일정_ 폴리모피즘 조.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungy\Documents\★_개인플젝\8차_팀플젝\03_개발일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71985F7F-1F69-4FAA-8C21-F33A1F8804C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED118EC-F5D0-4E83-97C3-4CE419B39D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,6 +688,66 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -700,68 +760,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1109,7 +1109,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S16" sqref="S16"/>
+      <selection pane="bottomRight" activeCell="K17" sqref="K17:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1122,135 +1122,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="52"/>
-      <c r="BB1" s="52"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="59"/>
+      <c r="BB1" s="59"/>
       <c r="BC1" s="6"/>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.4">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51"/>
-      <c r="BB2" s="51"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="58"/>
+      <c r="AP2" s="58"/>
+      <c r="AQ2" s="58"/>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58"/>
+      <c r="BB2" s="58"/>
       <c r="BC2" s="4"/>
     </row>
     <row r="3" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="9">
         <v>9</v>
       </c>
@@ -1404,13 +1404,13 @@
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="54"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1497,7 +1497,7 @@
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="50"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="48" t="s">
         <v>18</v>
       </c>
@@ -1588,13 +1588,13 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="46"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="16" t="s">
         <v>0</v>
       </c>
@@ -1681,11 +1681,11 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="47" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="47"/>
+      <c r="D7" s="57"/>
       <c r="E7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1772,11 +1772,11 @@
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="47" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="47"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1863,11 +1863,11 @@
       <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="47" t="s">
+      <c r="B9" s="55"/>
+      <c r="C9" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1954,11 +1954,11 @@
       <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="47" t="s">
+      <c r="B10" s="55"/>
+      <c r="C10" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="47"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="2" t="s">
         <v>0</v>
       </c>
@@ -2045,7 +2045,7 @@
       <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="48" t="s">
         <v>13</v>
       </c>
@@ -2136,13 +2136,13 @@
       <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="42" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="16" t="s">
@@ -2229,11 +2229,11 @@
     </row>
     <row r="13" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
-        <v>28</v>
-      </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="43" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -2319,11 +2319,11 @@
     </row>
     <row r="14" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
-        <v>10</v>
-      </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="44" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -2410,11 +2410,11 @@
     </row>
     <row r="15" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
-        <v>14</v>
-      </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="55"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="44" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -2501,11 +2501,11 @@
     </row>
     <row r="16" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="55"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="43" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -2592,11 +2592,11 @@
     </row>
     <row r="17" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="55"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="43" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -2682,11 +2682,11 @@
     </row>
     <row r="18" spans="1:55" s="1" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="7">
-        <v>38</v>
-      </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="55"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="43" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -2773,11 +2773,11 @@
     </row>
     <row r="19" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="7">
-        <v>21</v>
-      </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="55"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="44" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -2864,11 +2864,11 @@
     </row>
     <row r="20" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7">
-        <v>20</v>
-      </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="55"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="44" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -2955,11 +2955,11 @@
     </row>
     <row r="21" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7">
-        <v>23</v>
-      </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="55"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="44" t="s">
         <v>44</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -3046,11 +3046,11 @@
     </row>
     <row r="22" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="7">
-        <v>22</v>
-      </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="55"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="44" t="s">
         <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -3137,11 +3137,11 @@
     </row>
     <row r="23" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7">
-        <v>21</v>
-      </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="55"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="44" t="s">
         <v>60</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -3228,11 +3228,11 @@
     </row>
     <row r="24" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="7">
-        <v>20</v>
-      </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="55"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="44" t="s">
         <v>63</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -3319,11 +3319,11 @@
     </row>
     <row r="25" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="7">
-        <v>23</v>
-      </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="55"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="44" t="s">
         <v>64</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -3410,11 +3410,11 @@
     </row>
     <row r="26" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="7">
-        <v>22</v>
-      </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="55"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="44" t="s">
         <v>65</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -3501,11 +3501,11 @@
     </row>
     <row r="27" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="7">
-        <v>14</v>
-      </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="55"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="44" t="s">
         <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -3592,11 +3592,11 @@
     </row>
     <row r="28" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="7">
-        <v>10</v>
-      </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="55"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="44" t="s">
         <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -3683,11 +3683,11 @@
     </row>
     <row r="29" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="7">
-        <v>12</v>
-      </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="55"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="44" t="s">
         <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -3774,11 +3774,11 @@
     </row>
     <row r="30" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="7">
-        <v>13</v>
-      </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="55"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="44" t="s">
         <v>48</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -3865,11 +3865,11 @@
     </row>
     <row r="31" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="7">
-        <v>15</v>
-      </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="55"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="43" t="s">
         <v>73</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -3956,11 +3956,11 @@
     </row>
     <row r="32" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="7">
-        <v>17</v>
-      </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="55"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="44" t="s">
         <v>50</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -4047,11 +4047,11 @@
     </row>
     <row r="33" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="7">
-        <v>18</v>
-      </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="55"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="44" t="s">
         <v>51</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -4138,11 +4138,11 @@
     </row>
     <row r="34" spans="1:55" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="7">
-        <v>26</v>
-      </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="55"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="45" t="s">
         <v>26</v>
       </c>
       <c r="E34" s="12" t="s">
@@ -4229,13 +4229,13 @@
     </row>
     <row r="35" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="7">
-        <v>35</v>
-      </c>
-      <c r="B35" s="56"/>
-      <c r="C35" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="55"/>
+      <c r="C35" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="65" t="s">
+      <c r="D35" s="46" t="s">
         <v>21</v>
       </c>
       <c r="E35" s="7" t="s">
@@ -4322,11 +4322,11 @@
     </row>
     <row r="36" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="7">
-        <v>36</v>
-      </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="55"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="43" t="s">
         <v>52</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -4413,11 +4413,11 @@
     </row>
     <row r="37" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="7">
-        <v>36</v>
-      </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="55"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="43" t="s">
         <v>53</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -4504,11 +4504,11 @@
     </row>
     <row r="38" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="7">
-        <v>21</v>
-      </c>
-      <c r="B38" s="56"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="55"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="44" t="s">
         <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -4595,11 +4595,11 @@
     </row>
     <row r="39" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="7">
-        <v>21</v>
-      </c>
-      <c r="B39" s="56"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="55"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="44" t="s">
         <v>60</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -4686,11 +4686,11 @@
     </row>
     <row r="40" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="7">
-        <v>20</v>
-      </c>
-      <c r="B40" s="56"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="55"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="44" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -4777,11 +4777,11 @@
     </row>
     <row r="41" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="7">
-        <v>23</v>
-      </c>
-      <c r="B41" s="56"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="55"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="44" t="s">
         <v>61</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -4868,11 +4868,11 @@
     </row>
     <row r="42" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="7">
-        <v>22</v>
-      </c>
-      <c r="B42" s="56"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="55"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="44" t="s">
         <v>62</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -4959,11 +4959,11 @@
     </row>
     <row r="43" spans="1:55" s="1" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="7">
-        <v>38</v>
-      </c>
-      <c r="B43" s="56"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="55"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="43" t="s">
         <v>27</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -5050,11 +5050,11 @@
     </row>
     <row r="44" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="7">
-        <v>37</v>
-      </c>
-      <c r="B44" s="56"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="55"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="47" t="s">
         <v>55</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -5141,11 +5141,11 @@
     </row>
     <row r="45" spans="1:55" s="1" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="7">
-        <v>38</v>
-      </c>
-      <c r="B45" s="56"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="55"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="47" t="s">
         <v>56</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -5232,11 +5232,11 @@
     </row>
     <row r="46" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="7">
-        <v>36</v>
-      </c>
-      <c r="B46" s="56"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="55"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="43" t="s">
         <v>57</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -5323,11 +5323,11 @@
     </row>
     <row r="47" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="7">
-        <v>37</v>
-      </c>
-      <c r="B47" s="56"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="55"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="43" t="s">
         <v>58</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -5414,11 +5414,11 @@
     </row>
     <row r="48" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="7">
-        <v>38</v>
-      </c>
-      <c r="B48" s="56"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="55"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="47" t="s">
         <v>59</v>
       </c>
       <c r="E48" s="2" t="s">
@@ -5505,11 +5505,11 @@
     </row>
     <row r="49" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="7">
-        <v>39</v>
-      </c>
-      <c r="B49" s="56"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="55"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="43" t="s">
         <v>16</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -5595,11 +5595,11 @@
     </row>
     <row r="50" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="7">
-        <v>40</v>
-      </c>
-      <c r="B50" s="56"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="55"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="43" t="s">
         <v>67</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -5685,11 +5685,11 @@
     </row>
     <row r="51" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="7">
-        <v>41</v>
-      </c>
-      <c r="B51" s="56"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="55"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="43" t="s">
         <v>68</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -5775,11 +5775,11 @@
     </row>
     <row r="52" spans="1:55" x14ac:dyDescent="0.4">
       <c r="A52" s="7">
-        <v>39</v>
-      </c>
-      <c r="B52" s="56"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="55"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="43" t="s">
         <v>69</v>
       </c>
       <c r="E52" s="2" t="s">
@@ -5865,11 +5865,11 @@
     </row>
     <row r="53" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" s="7">
-        <v>42</v>
-      </c>
-      <c r="B53" s="56"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="55"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="43" t="s">
         <v>72</v>
       </c>
       <c r="E53" s="2" t="s">
@@ -5955,11 +5955,11 @@
     </row>
     <row r="54" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="7">
-        <v>40</v>
-      </c>
-      <c r="B54" s="56"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="55"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="43" t="s">
         <v>71</v>
       </c>
       <c r="E54" s="2" t="s">
@@ -6045,11 +6045,11 @@
     </row>
     <row r="55" spans="1:55" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="7">
-        <v>47</v>
-      </c>
-      <c r="B55" s="50"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="56"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="43" t="s">
         <v>70</v>
       </c>
       <c r="E55" s="12" t="s">
@@ -6135,15 +6135,15 @@
     </row>
     <row r="56" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="7">
-        <v>48</v>
-      </c>
-      <c r="B56" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="46" t="s">
+      <c r="C56" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="46"/>
+      <c r="D56" s="61"/>
       <c r="E56" s="16" t="s">
         <v>0</v>
       </c>
@@ -6228,13 +6228,13 @@
     </row>
     <row r="57" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="7">
-        <v>49</v>
-      </c>
-      <c r="B57" s="43"/>
-      <c r="C57" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="63"/>
+      <c r="C57" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="47"/>
+      <c r="D57" s="57"/>
       <c r="E57" s="2" t="s">
         <v>0</v>
       </c>
@@ -6319,13 +6319,13 @@
     </row>
     <row r="58" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="7">
-        <v>50</v>
-      </c>
-      <c r="B58" s="44"/>
-      <c r="C58" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="64"/>
+      <c r="C58" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="47"/>
+      <c r="D58" s="57"/>
       <c r="E58" s="2" t="s">
         <v>0</v>
       </c>
@@ -6410,9 +6410,9 @@
     </row>
     <row r="59" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="7">
-        <v>51</v>
-      </c>
-      <c r="B59" s="45"/>
+        <v>56</v>
+      </c>
+      <c r="B59" s="65"/>
       <c r="C59" s="48" t="s">
         <v>33</v>
       </c>
@@ -6501,15 +6501,15 @@
     </row>
     <row r="60" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="7">
-        <v>52</v>
-      </c>
-      <c r="B60" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="46" t="s">
+      <c r="C60" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="46"/>
+      <c r="D60" s="61"/>
       <c r="E60" s="16" t="s">
         <v>0</v>
       </c>
@@ -6594,9 +6594,9 @@
     </row>
     <row r="61" spans="1:55" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="7">
-        <v>53</v>
-      </c>
-      <c r="B61" s="50"/>
+        <v>58</v>
+      </c>
+      <c r="B61" s="56"/>
       <c r="C61" s="48" t="s">
         <v>29</v>
       </c>
@@ -6684,15 +6684,15 @@
     </row>
     <row r="62" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="7">
-        <v>54</v>
-      </c>
-      <c r="B62" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="46" t="s">
+      <c r="C62" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="46"/>
+      <c r="D62" s="61"/>
       <c r="E62" s="16" t="s">
         <v>0</v>
       </c>
@@ -6777,9 +6777,9 @@
     </row>
     <row r="63" spans="1:55" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="7">
-        <v>55</v>
-      </c>
-      <c r="B63" s="50"/>
+        <v>60</v>
+      </c>
+      <c r="B63" s="56"/>
       <c r="C63" s="48" t="s">
         <v>38</v>
       </c>
@@ -6868,18 +6868,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:C34"/>
-    <mergeCell ref="B12:B55"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A1:BB1"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:BB2"/>
-    <mergeCell ref="B2:C3"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="C63:D63"/>
@@ -6891,6 +6879,18 @@
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A1:BB1"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:BB2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:C34"/>
+    <mergeCell ref="B12:B55"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C35:C55"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C7:D7"/>

--- a/03_개발일정/개발일정_ 폴리모피즘 조.xlsx
+++ b/03_개발일정/개발일정_ 폴리모피즘 조.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungy\Documents\★_개인플젝\8차_팀플젝\03_개발일정\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosmo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED118EC-F5D0-4E83-97C3-4CE419B39D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669F8F76-04DD-405F-B753-006DA5020B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12600" yWindow="1275" windowWidth="16395" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="74">
   <si>
     <t>정유정</t>
   </si>
@@ -70,9 +70,6 @@
     <t>시스템(부하)테스트</t>
   </si>
   <si>
-    <t xml:space="preserve">  관계형스키마</t>
-  </si>
-  <si>
     <t>상품 교환/환불</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>단위테스트</t>
   </si>
   <si>
-    <t>고객센터</t>
-  </si>
-  <si>
     <t>상품조회</t>
   </si>
   <si>
@@ -130,9 +124,6 @@
     <t>프로젝트 명, 예술품 정기 구독 서비스</t>
   </si>
   <si>
-    <t>오픈</t>
-  </si>
-  <si>
     <t xml:space="preserve">  eXERD </t>
   </si>
   <si>
@@ -140,10 +131,6 @@
   </si>
   <si>
     <t>발표 연습</t>
-  </si>
-  <si>
-    <t>관리자 회원가입</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>로그인</t>
@@ -190,30 +177,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>홈페이지 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매자 로그인</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>소셜 로그인 (kakao, naver, google)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">회원 등급 </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>상품 커스터마이징 (배경 색 지정)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>커스터마이징 추천 기능</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>장바구니</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -279,6 +246,42 @@
   </si>
   <si>
     <t>리뷰 댓글 (comment)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>About us</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 로그인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>소셜 로그인 (kakao, naver)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>커스터마이징 추천 기능(구독자x)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 커스터마이징 (색 지정-벽컬러)(구독자x)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>구독 취소</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>런칭</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  관계형스키마</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">관리자 회원가입 </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -488,38 +491,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -542,7 +517,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -551,7 +526,29 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -563,7 +560,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -643,25 +640,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -676,16 +661,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -706,46 +685,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -760,8 +712,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1109,148 +1103,148 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="K17:L17"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.69921875" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="24" width="3.69921875" style="1" customWidth="1"/>
-    <col min="25" max="54" width="3.69921875" customWidth="1"/>
+    <col min="4" max="4" width="37.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="24" width="3.75" style="1" customWidth="1"/>
+    <col min="25" max="54" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="59"/>
-      <c r="BB1" s="59"/>
+    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A1" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="52"/>
+      <c r="BB1" s="52"/>
       <c r="BC1" s="6"/>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.4">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="60" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="58"/>
-      <c r="AQ2" s="58"/>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="58"/>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58"/>
-      <c r="BB2" s="58"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51"/>
+      <c r="BB2" s="51"/>
       <c r="BC2" s="4"/>
     </row>
-    <row r="3" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+    <row r="3" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="9">
         <v>9</v>
       </c>
@@ -1400,17 +1394,17 @@
       </c>
       <c r="BC3" s="5"/>
     </row>
-    <row r="4" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +1421,9 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="O4" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="P4" s="11" t="s">
         <v>1</v>
       </c>
@@ -1436,7 +1432,7 @@
       </c>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
+      <c r="T4" s="20"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="11" t="s">
@@ -1446,7 +1442,9 @@
         <v>1</v>
       </c>
       <c r="Y4" s="26"/>
-      <c r="Z4" s="27"/>
+      <c r="Z4" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
@@ -1458,7 +1456,9 @@
       </c>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
+      <c r="AH4" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="AI4" s="8"/>
       <c r="AJ4" s="8"/>
       <c r="AK4" s="11" t="s">
@@ -1493,24 +1493,22 @@
       <c r="BB4" s="20"/>
       <c r="BC4" s="4"/>
     </row>
-    <row r="5" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:55" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="48"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="45"/>
       <c r="E5" s="12" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="14" t="s">
-        <v>1</v>
-      </c>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="14" t="s">
         <v>1</v>
       </c>
@@ -1518,7 +1516,9 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
+      <c r="O5" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="P5" s="14" t="s">
         <v>1</v>
       </c>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
+      <c r="T5" s="21"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
       <c r="W5" s="14" t="s">
@@ -1536,8 +1536,10 @@
       <c r="X5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="29"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="AA5" s="15"/>
       <c r="AB5" s="15"/>
       <c r="AC5" s="15"/>
@@ -1549,7 +1551,9 @@
       </c>
       <c r="AF5" s="15"/>
       <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
+      <c r="AH5" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="AI5" s="15"/>
       <c r="AJ5" s="15"/>
       <c r="AK5" s="14" t="s">
@@ -1584,34 +1588,34 @@
       <c r="BB5" s="21"/>
       <c r="BC5" s="4"/>
     </row>
-    <row r="6" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:55" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="61"/>
+      <c r="C6" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="44"/>
       <c r="E6" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
-      <c r="I6" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="I6" s="31"/>
       <c r="J6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="P6" s="18" t="s">
         <v>1</v>
       </c>
@@ -1620,7 +1624,7 @@
       </c>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
+      <c r="T6" s="22"/>
       <c r="U6" s="17"/>
       <c r="V6" s="17"/>
       <c r="W6" s="18" t="s">
@@ -1629,8 +1633,10 @@
       <c r="X6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="31"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="AA6" s="17"/>
       <c r="AB6" s="17"/>
       <c r="AC6" s="17"/>
@@ -1642,7 +1648,9 @@
       </c>
       <c r="AF6" s="17"/>
       <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
+      <c r="AH6" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="AI6" s="17"/>
       <c r="AJ6" s="17"/>
       <c r="AK6" s="18" t="s">
@@ -1677,32 +1685,32 @@
       <c r="BB6" s="22"/>
       <c r="BC6" s="4"/>
     </row>
-    <row r="7" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:55" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="46"/>
       <c r="E7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="I7" s="31"/>
       <c r="J7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P7" s="10" t="s">
         <v>1</v>
       </c>
@@ -1711,7 +1719,7 @@
       </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
+      <c r="T7" s="23"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="10" t="s">
@@ -1720,8 +1728,10 @@
       <c r="X7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="33"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
@@ -1733,7 +1743,9 @@
       </c>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
+      <c r="AH7" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="10" t="s">
@@ -1768,15 +1780,15 @@
       <c r="BB7" s="23"/>
       <c r="BC7" s="4"/>
     </row>
-    <row r="8" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="46"/>
       <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1789,11 +1801,13 @@
       <c r="J8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P8" s="10" t="s">
         <v>1</v>
       </c>
@@ -1802,7 +1816,7 @@
       </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="T8" s="23"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="10" t="s">
@@ -1811,8 +1825,10 @@
       <c r="X8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="33"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
@@ -1824,7 +1840,9 @@
       </c>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
+      <c r="AH8" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
       <c r="AK8" s="10" t="s">
@@ -1859,15 +1877,15 @@
       <c r="BB8" s="23"/>
       <c r="BC8" s="4"/>
     </row>
-    <row r="9" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="57" t="s">
+      <c r="B9" s="58"/>
+      <c r="C9" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="57"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1880,11 +1898,13 @@
       <c r="J9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P9" s="10" t="s">
         <v>1</v>
       </c>
@@ -1893,7 +1913,7 @@
       </c>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
+      <c r="T9" s="23"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="10" t="s">
@@ -1902,8 +1922,10 @@
       <c r="X9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="33"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
@@ -1915,7 +1937,9 @@
       </c>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
+      <c r="AH9" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
       <c r="AK9" s="10" t="s">
@@ -1950,15 +1974,15 @@
       <c r="BB9" s="23"/>
       <c r="BC9" s="4"/>
     </row>
-    <row r="10" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="57"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="46"/>
       <c r="E10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1971,11 +1995,13 @@
       <c r="J10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P10" s="10" t="s">
         <v>1</v>
       </c>
@@ -1984,7 +2010,7 @@
       </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="T10" s="23"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="10" t="s">
@@ -1993,8 +2019,10 @@
       <c r="X10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="33"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
@@ -2006,7 +2034,9 @@
       </c>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
+      <c r="AH10" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
       <c r="AK10" s="10" t="s">
@@ -2041,15 +2071,15 @@
       <c r="BB10" s="23"/>
       <c r="BC10" s="4"/>
     </row>
-    <row r="11" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:55" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="48"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="12" t="s">
         <v>0</v>
       </c>
@@ -2062,11 +2092,13 @@
       <c r="J11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="P11" s="14" t="s">
         <v>1</v>
       </c>
@@ -2075,7 +2107,7 @@
       </c>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
+      <c r="T11" s="21"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
       <c r="W11" s="14" t="s">
@@ -2084,8 +2116,10 @@
       <c r="X11" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="29"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="AA11" s="15"/>
       <c r="AB11" s="15"/>
       <c r="AC11" s="15"/>
@@ -2097,7 +2131,9 @@
       </c>
       <c r="AF11" s="15"/>
       <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
+      <c r="AH11" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="AI11" s="15"/>
       <c r="AJ11" s="15"/>
       <c r="AK11" s="14" t="s">
@@ -2132,18 +2168,18 @@
       <c r="BB11" s="21"/>
       <c r="BC11" s="4"/>
     </row>
-    <row r="12" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>39</v>
+      <c r="C12" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>73</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>0</v>
@@ -2159,9 +2195,11 @@
       </c>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="P12" s="18" t="s">
         <v>1</v>
       </c>
@@ -2170,7 +2208,7 @@
       </c>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
+      <c r="T12" s="22"/>
       <c r="U12" s="17"/>
       <c r="V12" s="17"/>
       <c r="W12" s="18" t="s">
@@ -2179,8 +2217,10 @@
       <c r="X12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="31"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="AA12" s="17"/>
       <c r="AB12" s="17"/>
       <c r="AC12" s="17"/>
@@ -2192,7 +2232,9 @@
       </c>
       <c r="AF12" s="17"/>
       <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
+      <c r="AH12" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="AI12" s="17"/>
       <c r="AJ12" s="17"/>
       <c r="AK12" s="18" t="s">
@@ -2227,14 +2269,14 @@
       <c r="BB12" s="22"/>
       <c r="BC12" s="4"/>
     </row>
-    <row r="13" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="43" t="s">
-        <v>40</v>
+      <c r="B13" s="64"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="37" t="s">
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>0</v>
@@ -2250,9 +2292,11 @@
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P13" s="10" t="s">
         <v>1</v>
       </c>
@@ -2261,7 +2305,7 @@
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
+      <c r="T13" s="23"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="10" t="s">
@@ -2270,8 +2314,10 @@
       <c r="X13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="33"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
@@ -2283,7 +2329,9 @@
       </c>
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
+      <c r="AH13" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
       <c r="AK13" s="10" t="s">
@@ -2317,14 +2365,14 @@
       <c r="BA13" s="3"/>
       <c r="BB13" s="23"/>
     </row>
-    <row r="14" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="44" t="s">
-        <v>41</v>
+      <c r="B14" s="64"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>0</v>
@@ -2342,7 +2390,9 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="O14" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P14" s="10" t="s">
         <v>1</v>
       </c>
@@ -2351,7 +2401,7 @@
       </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
+      <c r="T14" s="23"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="10" t="s">
@@ -2360,8 +2410,10 @@
       <c r="X14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="33"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
@@ -2373,7 +2425,9 @@
       </c>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
+      <c r="AH14" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="10" t="s">
@@ -2408,14 +2462,14 @@
       <c r="BB14" s="23"/>
       <c r="BC14" s="4"/>
     </row>
-    <row r="15" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="44" t="s">
-        <v>19</v>
+      <c r="B15" s="64"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>0</v>
@@ -2433,7 +2487,9 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="O15" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P15" s="10" t="s">
         <v>1</v>
       </c>
@@ -2442,7 +2498,7 @@
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
+      <c r="T15" s="23"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="10" t="s">
@@ -2451,8 +2507,10 @@
       <c r="X15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="33"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
@@ -2464,7 +2522,9 @@
       </c>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
+      <c r="AH15" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="10" t="s">
@@ -2499,14 +2559,14 @@
       <c r="BB15" s="23"/>
       <c r="BC15" s="4"/>
     </row>
-    <row r="16" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="43" t="s">
-        <v>22</v>
+      <c r="B16" s="64"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>0</v>
@@ -2524,7 +2584,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="O16" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P16" s="10" t="s">
         <v>1</v>
       </c>
@@ -2533,7 +2595,7 @@
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
+      <c r="T16" s="23"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="10" t="s">
@@ -2542,8 +2604,10 @@
       <c r="X16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="33"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
@@ -2555,7 +2619,9 @@
       </c>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
+      <c r="AH16" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="10" t="s">
@@ -2590,14 +2656,14 @@
       <c r="BB16" s="23"/>
       <c r="BC16" s="4"/>
     </row>
-    <row r="17" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="43" t="s">
-        <v>24</v>
+      <c r="B17" s="64"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="37" t="s">
+        <v>23</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>0</v>
@@ -2615,7 +2681,9 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="O17" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P17" s="10" t="s">
         <v>1</v>
       </c>
@@ -2624,7 +2692,7 @@
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
+      <c r="T17" s="23"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="10" t="s">
@@ -2633,8 +2701,10 @@
       <c r="X17" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="33"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
@@ -2646,7 +2716,9 @@
       </c>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
+      <c r="AH17" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="10" t="s">
@@ -2680,14 +2752,14 @@
       <c r="BA17" s="3"/>
       <c r="BB17" s="23"/>
     </row>
-    <row r="18" spans="1:55" s="1" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:55" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="43" t="s">
-        <v>54</v>
+      <c r="B18" s="64"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>0</v>
@@ -2705,7 +2777,9 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="O18" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P18" s="10" t="s">
         <v>1</v>
       </c>
@@ -2714,7 +2788,7 @@
       </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
+      <c r="T18" s="23"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="10" t="s">
@@ -2723,8 +2797,10 @@
       <c r="X18" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="33"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
@@ -2736,7 +2812,9 @@
       </c>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
+      <c r="AH18" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
       <c r="AK18" s="10" t="s">
@@ -2771,14 +2849,14 @@
       <c r="BB18" s="23"/>
       <c r="BC18" s="4"/>
     </row>
-    <row r="19" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="44" t="s">
-        <v>43</v>
+      <c r="B19" s="64"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="38" t="s">
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>0</v>
@@ -2796,7 +2874,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="O19" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P19" s="10" t="s">
         <v>1</v>
       </c>
@@ -2805,7 +2885,7 @@
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
+      <c r="T19" s="23"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="10" t="s">
@@ -2814,8 +2894,10 @@
       <c r="X19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="33"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
@@ -2827,7 +2909,9 @@
       </c>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
+      <c r="AH19" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
       <c r="AK19" s="10" t="s">
@@ -2862,14 +2946,14 @@
       <c r="BB19" s="23"/>
       <c r="BC19" s="4"/>
     </row>
-    <row r="20" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="44" t="s">
-        <v>42</v>
+      <c r="B20" s="64"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="38" t="s">
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>0</v>
@@ -2887,7 +2971,9 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="O20" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P20" s="10" t="s">
         <v>1</v>
       </c>
@@ -2896,7 +2982,7 @@
       </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
+      <c r="T20" s="23"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="10" t="s">
@@ -2905,8 +2991,10 @@
       <c r="X20" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="33"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
@@ -2918,7 +3006,9 @@
       </c>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
+      <c r="AH20" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
       <c r="AK20" s="10" t="s">
@@ -2953,14 +3043,14 @@
       <c r="BB20" s="23"/>
       <c r="BC20" s="4"/>
     </row>
-    <row r="21" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="44" t="s">
-        <v>44</v>
+      <c r="B21" s="64"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="38" t="s">
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>0</v>
@@ -2978,7 +3068,9 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="O21" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P21" s="10" t="s">
         <v>1</v>
       </c>
@@ -2987,7 +3079,7 @@
       </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
+      <c r="T21" s="23"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="10" t="s">
@@ -2996,8 +3088,10 @@
       <c r="X21" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="33"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
@@ -3009,7 +3103,9 @@
       </c>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
+      <c r="AH21" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
       <c r="AK21" s="10" t="s">
@@ -3044,14 +3140,14 @@
       <c r="BB21" s="23"/>
       <c r="BC21" s="4"/>
     </row>
-    <row r="22" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>19</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="44" t="s">
-        <v>45</v>
+      <c r="B22" s="64"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="38" t="s">
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>0</v>
@@ -3069,7 +3165,9 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
+      <c r="O22" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P22" s="10" t="s">
         <v>1</v>
       </c>
@@ -3078,7 +3176,7 @@
       </c>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
+      <c r="T22" s="23"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="10" t="s">
@@ -3087,8 +3185,10 @@
       <c r="X22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="33"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
@@ -3100,7 +3200,9 @@
       </c>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
+      <c r="AH22" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
       <c r="AK22" s="10" t="s">
@@ -3135,14 +3237,14 @@
       <c r="BB22" s="23"/>
       <c r="BC22" s="4"/>
     </row>
-    <row r="23" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="44" t="s">
-        <v>60</v>
+      <c r="B23" s="64"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>0</v>
@@ -3160,7 +3262,9 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
+      <c r="O23" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P23" s="10" t="s">
         <v>1</v>
       </c>
@@ -3169,7 +3273,7 @@
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
+      <c r="T23" s="23"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="10" t="s">
@@ -3178,8 +3282,10 @@
       <c r="X23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="33"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
@@ -3191,7 +3297,9 @@
       </c>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
-      <c r="AH23" s="3"/>
+      <c r="AH23" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
       <c r="AK23" s="10" t="s">
@@ -3226,14 +3334,14 @@
       <c r="BB23" s="23"/>
       <c r="BC23" s="4"/>
     </row>
-    <row r="24" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>21</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="44" t="s">
-        <v>63</v>
+      <c r="B24" s="64"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="38" t="s">
+        <v>54</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>0</v>
@@ -3251,7 +3359,9 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
+      <c r="O24" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P24" s="10" t="s">
         <v>1</v>
       </c>
@@ -3260,7 +3370,7 @@
       </c>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
+      <c r="T24" s="23"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="10" t="s">
@@ -3269,8 +3379,10 @@
       <c r="X24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="33"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
@@ -3282,7 +3394,9 @@
       </c>
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
+      <c r="AH24" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="10" t="s">
@@ -3317,14 +3431,14 @@
       <c r="BB24" s="23"/>
       <c r="BC24" s="4"/>
     </row>
-    <row r="25" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>22</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="44" t="s">
-        <v>64</v>
+      <c r="B25" s="64"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>0</v>
@@ -3342,7 +3456,9 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
+      <c r="O25" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P25" s="10" t="s">
         <v>1</v>
       </c>
@@ -3351,7 +3467,7 @@
       </c>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
+      <c r="T25" s="23"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="10" t="s">
@@ -3360,8 +3476,10 @@
       <c r="X25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="33"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
@@ -3373,7 +3491,9 @@
       </c>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
+      <c r="AH25" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
       <c r="AK25" s="10" t="s">
@@ -3408,14 +3528,14 @@
       <c r="BB25" s="23"/>
       <c r="BC25" s="4"/>
     </row>
-    <row r="26" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>23</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="44" t="s">
-        <v>65</v>
+      <c r="B26" s="64"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="38" t="s">
+        <v>56</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>0</v>
@@ -3433,7 +3553,9 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
+      <c r="O26" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P26" s="10" t="s">
         <v>1</v>
       </c>
@@ -3442,7 +3564,7 @@
       </c>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
+      <c r="T26" s="23"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="10" t="s">
@@ -3451,8 +3573,10 @@
       <c r="X26" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="33"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
@@ -3464,7 +3588,9 @@
       </c>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
+      <c r="AH26" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="10" t="s">
@@ -3499,14 +3625,14 @@
       <c r="BB26" s="23"/>
       <c r="BC26" s="4"/>
     </row>
-    <row r="27" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>24</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="44" t="s">
-        <v>49</v>
+      <c r="B27" s="64"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="38" t="s">
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>0</v>
@@ -3524,7 +3650,9 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
+      <c r="O27" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P27" s="10" t="s">
         <v>1</v>
       </c>
@@ -3533,7 +3661,7 @@
       </c>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
+      <c r="T27" s="23"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="10" t="s">
@@ -3542,8 +3670,10 @@
       <c r="X27" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="33"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
@@ -3555,7 +3685,9 @@
       </c>
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
-      <c r="AH27" s="3"/>
+      <c r="AH27" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
       <c r="AK27" s="10" t="s">
@@ -3590,14 +3722,14 @@
       <c r="BB27" s="23"/>
       <c r="BC27" s="4"/>
     </row>
-    <row r="28" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>25</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="44" t="s">
-        <v>46</v>
+      <c r="B28" s="64"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="38" t="s">
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>0</v>
@@ -3615,7 +3747,9 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
+      <c r="O28" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P28" s="10" t="s">
         <v>1</v>
       </c>
@@ -3624,7 +3758,7 @@
       </c>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
+      <c r="T28" s="23"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="10" t="s">
@@ -3633,8 +3767,10 @@
       <c r="X28" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="33"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
@@ -3646,7 +3782,9 @@
       </c>
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
+      <c r="AH28" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="3"/>
       <c r="AK28" s="10" t="s">
@@ -3681,14 +3819,14 @@
       <c r="BB28" s="23"/>
       <c r="BC28" s="4"/>
     </row>
-    <row r="29" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>26</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="44" t="s">
-        <v>47</v>
+      <c r="B29" s="64"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="38" t="s">
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>0</v>
@@ -3706,7 +3844,9 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
+      <c r="O29" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P29" s="10" t="s">
         <v>1</v>
       </c>
@@ -3715,7 +3855,7 @@
       </c>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
+      <c r="T29" s="23"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="10" t="s">
@@ -3724,8 +3864,10 @@
       <c r="X29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="33"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
@@ -3737,7 +3879,9 @@
       </c>
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
-      <c r="AH29" s="3"/>
+      <c r="AH29" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="3"/>
       <c r="AK29" s="10" t="s">
@@ -3772,14 +3916,14 @@
       <c r="BB29" s="23"/>
       <c r="BC29" s="4"/>
     </row>
-    <row r="30" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>27</v>
       </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="44" t="s">
-        <v>48</v>
+      <c r="B30" s="64"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="38" t="s">
+        <v>44</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>0</v>
@@ -3797,7 +3941,9 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
+      <c r="O30" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P30" s="10" t="s">
         <v>1</v>
       </c>
@@ -3806,7 +3952,7 @@
       </c>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
+      <c r="T30" s="23"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="10" t="s">
@@ -3815,8 +3961,10 @@
       <c r="X30" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="33"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
@@ -3828,7 +3976,9 @@
       </c>
       <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
-      <c r="AH30" s="3"/>
+      <c r="AH30" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="3"/>
       <c r="AK30" s="10" t="s">
@@ -3863,14 +4013,14 @@
       <c r="BB30" s="23"/>
       <c r="BC30" s="4"/>
     </row>
-    <row r="31" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>28</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="43" t="s">
-        <v>73</v>
+      <c r="B31" s="64"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="37" t="s">
+        <v>64</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>0</v>
@@ -3888,7 +4038,9 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
+      <c r="O31" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P31" s="10" t="s">
         <v>1</v>
       </c>
@@ -3897,7 +4049,7 @@
       </c>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
+      <c r="T31" s="23"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="10" t="s">
@@ -3906,8 +4058,10 @@
       <c r="X31" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="33"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
@@ -3919,7 +4073,9 @@
       </c>
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
-      <c r="AH31" s="3"/>
+      <c r="AH31" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
       <c r="AK31" s="10" t="s">
@@ -3954,14 +4110,14 @@
       <c r="BB31" s="23"/>
       <c r="BC31" s="4"/>
     </row>
-    <row r="32" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>29</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="44" t="s">
-        <v>50</v>
+      <c r="B32" s="64"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="38" t="s">
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>0</v>
@@ -3979,7 +4135,9 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
+      <c r="O32" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P32" s="10" t="s">
         <v>1</v>
       </c>
@@ -3988,7 +4146,7 @@
       </c>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
+      <c r="T32" s="23"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="10" t="s">
@@ -3997,8 +4155,10 @@
       <c r="X32" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="33"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
@@ -4010,7 +4170,9 @@
       </c>
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
-      <c r="AH32" s="3"/>
+      <c r="AH32" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
       <c r="AK32" s="10" t="s">
@@ -4045,289 +4207,307 @@
       <c r="BB32" s="23"/>
       <c r="BC32" s="4"/>
     </row>
-    <row r="33" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:55" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
-        <v>30</v>
-      </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="64"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
       <c r="I33" s="10" t="s">
         <v>1</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="X33" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE33" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="3"/>
-      <c r="AH33" s="3"/>
-      <c r="AI33" s="3"/>
-      <c r="AJ33" s="3"/>
-      <c r="AK33" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL33" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM33" s="3"/>
-      <c r="AN33" s="3"/>
-      <c r="AO33" s="3"/>
-      <c r="AP33" s="3"/>
-      <c r="AQ33" s="3"/>
-      <c r="AR33" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS33" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT33" s="3"/>
-      <c r="AU33" s="3"/>
-      <c r="AV33" s="3"/>
-      <c r="AW33" s="3"/>
-      <c r="AX33" s="3"/>
-      <c r="AY33" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ33" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA33" s="3"/>
-      <c r="BB33" s="23"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P33" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="X33" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="15"/>
+      <c r="AH33" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="15"/>
+      <c r="AJ33" s="15"/>
+      <c r="AK33" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL33" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM33" s="15"/>
+      <c r="AN33" s="15"/>
+      <c r="AO33" s="15"/>
+      <c r="AP33" s="15"/>
+      <c r="AQ33" s="15"/>
+      <c r="AR33" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS33" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT33" s="15"/>
+      <c r="AU33" s="15"/>
+      <c r="AV33" s="15"/>
+      <c r="AW33" s="15"/>
+      <c r="AX33" s="15"/>
+      <c r="AY33" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ33" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA33" s="15"/>
+      <c r="BB33" s="21"/>
       <c r="BC33" s="4"/>
     </row>
-    <row r="34" spans="1:55" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
-        <v>31</v>
-      </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="64"/>
+      <c r="C34" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="X34" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="15"/>
-      <c r="AB34" s="15"/>
-      <c r="AC34" s="15"/>
-      <c r="AD34" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE34" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF34" s="15"/>
-      <c r="AG34" s="15"/>
-      <c r="AH34" s="15"/>
-      <c r="AI34" s="15"/>
-      <c r="AJ34" s="15"/>
-      <c r="AK34" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL34" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM34" s="15"/>
-      <c r="AN34" s="15"/>
-      <c r="AO34" s="15"/>
-      <c r="AP34" s="15"/>
-      <c r="AQ34" s="15"/>
-      <c r="AR34" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS34" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT34" s="15"/>
-      <c r="AU34" s="15"/>
-      <c r="AV34" s="15"/>
-      <c r="AW34" s="15"/>
-      <c r="AX34" s="15"/>
-      <c r="AY34" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ34" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA34" s="15"/>
-      <c r="BB34" s="21"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM34" s="8"/>
+      <c r="AN34" s="8"/>
+      <c r="AO34" s="8"/>
+      <c r="AP34" s="8"/>
+      <c r="AQ34" s="8"/>
+      <c r="AR34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT34" s="8"/>
+      <c r="AU34" s="8"/>
+      <c r="AV34" s="8"/>
+      <c r="AW34" s="8"/>
+      <c r="AX34" s="8"/>
+      <c r="AY34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA34" s="8"/>
+      <c r="BB34" s="20"/>
       <c r="BC34" s="4"/>
     </row>
-    <row r="35" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
-        <v>32</v>
-      </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="64"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="X35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="26"/>
-      <c r="Z35" s="27"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="8"/>
-      <c r="AD35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF35" s="8"/>
-      <c r="AG35" s="8"/>
-      <c r="AH35" s="8"/>
-      <c r="AI35" s="8"/>
-      <c r="AJ35" s="8"/>
-      <c r="AK35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM35" s="8"/>
-      <c r="AN35" s="8"/>
-      <c r="AO35" s="8"/>
-      <c r="AP35" s="8"/>
-      <c r="AQ35" s="8"/>
-      <c r="AR35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT35" s="8"/>
-      <c r="AU35" s="8"/>
-      <c r="AV35" s="8"/>
-      <c r="AW35" s="8"/>
-      <c r="AX35" s="8"/>
-      <c r="AY35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA35" s="8"/>
-      <c r="BB35" s="20"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="X35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="3"/>
+      <c r="AX35" s="3"/>
+      <c r="AY35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA35" s="3"/>
+      <c r="BB35" s="23"/>
       <c r="BC35" s="4"/>
     </row>
-    <row r="36" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
-        <v>33</v>
-      </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="43" t="s">
-        <v>52</v>
+        <v>34</v>
+      </c>
+      <c r="B36" s="64"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="37" t="s">
+        <v>67</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>0</v>
@@ -4345,7 +4525,9 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
+      <c r="O36" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P36" s="10" t="s">
         <v>1</v>
       </c>
@@ -4354,7 +4536,7 @@
       </c>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
+      <c r="T36" s="23"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="10" t="s">
@@ -4363,8 +4545,10 @@
       <c r="X36" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="33"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
@@ -4376,7 +4560,9 @@
       </c>
       <c r="AF36" s="3"/>
       <c r="AG36" s="3"/>
-      <c r="AH36" s="3"/>
+      <c r="AH36" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI36" s="3"/>
       <c r="AJ36" s="3"/>
       <c r="AK36" s="10" t="s">
@@ -4411,14 +4597,14 @@
       <c r="BB36" s="23"/>
       <c r="BC36" s="4"/>
     </row>
-    <row r="37" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
-        <v>34</v>
-      </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="43" t="s">
-        <v>53</v>
+        <v>35</v>
+      </c>
+      <c r="B37" s="64"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="38" t="s">
+        <v>39</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>0</v>
@@ -4436,7 +4622,9 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
+      <c r="O37" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P37" s="10" t="s">
         <v>1</v>
       </c>
@@ -4445,7 +4633,7 @@
       </c>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
+      <c r="T37" s="23"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="10" t="s">
@@ -4454,8 +4642,10 @@
       <c r="X37" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y37" s="32"/>
-      <c r="Z37" s="33"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
@@ -4467,7 +4657,9 @@
       </c>
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
-      <c r="AH37" s="3"/>
+      <c r="AH37" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="3"/>
       <c r="AK37" s="10" t="s">
@@ -4502,14 +4694,14 @@
       <c r="BB37" s="23"/>
       <c r="BC37" s="4"/>
     </row>
-    <row r="38" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
-        <v>35</v>
-      </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="44" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="B38" s="64"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>0</v>
@@ -4527,7 +4719,9 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
+      <c r="O38" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P38" s="10" t="s">
         <v>1</v>
       </c>
@@ -4536,7 +4730,7 @@
       </c>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
+      <c r="T38" s="23"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="10" t="s">
@@ -4545,8 +4739,10 @@
       <c r="X38" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y38" s="32"/>
-      <c r="Z38" s="33"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
@@ -4558,7 +4754,9 @@
       </c>
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
-      <c r="AH38" s="3"/>
+      <c r="AH38" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI38" s="3"/>
       <c r="AJ38" s="3"/>
       <c r="AK38" s="10" t="s">
@@ -4593,14 +4791,14 @@
       <c r="BB38" s="23"/>
       <c r="BC38" s="4"/>
     </row>
-    <row r="39" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
-        <v>36</v>
-      </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="44" t="s">
-        <v>60</v>
+        <v>37</v>
+      </c>
+      <c r="B39" s="64"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>0</v>
@@ -4618,7 +4816,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
+      <c r="O39" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P39" s="10" t="s">
         <v>1</v>
       </c>
@@ -4627,7 +4827,7 @@
       </c>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
+      <c r="T39" s="23"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="10" t="s">
@@ -4636,8 +4836,10 @@
       <c r="X39" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y39" s="32"/>
-      <c r="Z39" s="33"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
@@ -4649,7 +4851,9 @@
       </c>
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
-      <c r="AH39" s="3"/>
+      <c r="AH39" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
       <c r="AK39" s="10" t="s">
@@ -4684,14 +4888,14 @@
       <c r="BB39" s="23"/>
       <c r="BC39" s="4"/>
     </row>
-    <row r="40" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
-        <v>37</v>
-      </c>
-      <c r="B40" s="55"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="44" t="s">
-        <v>66</v>
+        <v>38</v>
+      </c>
+      <c r="B40" s="64"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="38" t="s">
+        <v>52</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>0</v>
@@ -4709,7 +4913,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
+      <c r="O40" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P40" s="10" t="s">
         <v>1</v>
       </c>
@@ -4718,7 +4924,7 @@
       </c>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
+      <c r="T40" s="23"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="10" t="s">
@@ -4727,8 +4933,10 @@
       <c r="X40" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y40" s="32"/>
-      <c r="Z40" s="33"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
@@ -4740,7 +4948,9 @@
       </c>
       <c r="AF40" s="3"/>
       <c r="AG40" s="3"/>
-      <c r="AH40" s="3"/>
+      <c r="AH40" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI40" s="3"/>
       <c r="AJ40" s="3"/>
       <c r="AK40" s="10" t="s">
@@ -4775,14 +4985,14 @@
       <c r="BB40" s="23"/>
       <c r="BC40" s="4"/>
     </row>
-    <row r="41" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
-        <v>38</v>
-      </c>
-      <c r="B41" s="55"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="44" t="s">
-        <v>61</v>
+        <v>39</v>
+      </c>
+      <c r="B41" s="64"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="38" t="s">
+        <v>53</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>0</v>
@@ -4800,7 +5010,9 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
+      <c r="O41" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P41" s="10" t="s">
         <v>1</v>
       </c>
@@ -4809,7 +5021,7 @@
       </c>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
+      <c r="T41" s="23"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="10" t="s">
@@ -4818,8 +5030,10 @@
       <c r="X41" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y41" s="32"/>
-      <c r="Z41" s="33"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
@@ -4831,7 +5045,9 @@
       </c>
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
-      <c r="AH41" s="3"/>
+      <c r="AH41" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="3"/>
       <c r="AK41" s="10" t="s">
@@ -4866,14 +5082,14 @@
       <c r="BB41" s="23"/>
       <c r="BC41" s="4"/>
     </row>
-    <row r="42" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:55" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
-        <v>39</v>
-      </c>
-      <c r="B42" s="55"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="44" t="s">
-        <v>62</v>
+        <v>40</v>
+      </c>
+      <c r="B42" s="64"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="37" t="s">
+        <v>25</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>0</v>
@@ -4891,7 +5107,9 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
+      <c r="O42" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P42" s="10" t="s">
         <v>1</v>
       </c>
@@ -4900,7 +5118,7 @@
       </c>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
+      <c r="T42" s="23"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="10" t="s">
@@ -4909,8 +5127,10 @@
       <c r="X42" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y42" s="32"/>
-      <c r="Z42" s="33"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
@@ -4922,7 +5142,9 @@
       </c>
       <c r="AF42" s="3"/>
       <c r="AG42" s="3"/>
-      <c r="AH42" s="3"/>
+      <c r="AH42" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI42" s="3"/>
       <c r="AJ42" s="3"/>
       <c r="AK42" s="10" t="s">
@@ -4957,14 +5179,14 @@
       <c r="BB42" s="23"/>
       <c r="BC42" s="4"/>
     </row>
-    <row r="43" spans="1:55" s="1" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
-        <v>40</v>
-      </c>
-      <c r="B43" s="55"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="43" t="s">
-        <v>27</v>
+        <v>41</v>
+      </c>
+      <c r="B43" s="64"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="41" t="s">
+        <v>69</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>0</v>
@@ -4982,7 +5204,9 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
+      <c r="O43" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P43" s="10" t="s">
         <v>1</v>
       </c>
@@ -4991,7 +5215,7 @@
       </c>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
+      <c r="T43" s="23"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="10" t="s">
@@ -5000,8 +5224,10 @@
       <c r="X43" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y43" s="32"/>
-      <c r="Z43" s="33"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
@@ -5013,7 +5239,9 @@
       </c>
       <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
-      <c r="AH43" s="3"/>
+      <c r="AH43" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="3"/>
       <c r="AK43" s="10" t="s">
@@ -5048,14 +5276,14 @@
       <c r="BB43" s="23"/>
       <c r="BC43" s="4"/>
     </row>
-    <row r="44" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:55" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
-        <v>41</v>
-      </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="47" t="s">
-        <v>55</v>
+        <v>42</v>
+      </c>
+      <c r="B44" s="64"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>0</v>
@@ -5073,7 +5301,9 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
+      <c r="O44" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P44" s="10" t="s">
         <v>1</v>
       </c>
@@ -5082,7 +5312,7 @@
       </c>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
+      <c r="T44" s="23"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="10" t="s">
@@ -5091,8 +5321,10 @@
       <c r="X44" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y44" s="32"/>
-      <c r="Z44" s="33"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
@@ -5104,7 +5336,9 @@
       </c>
       <c r="AF44" s="3"/>
       <c r="AG44" s="3"/>
-      <c r="AH44" s="3"/>
+      <c r="AH44" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI44" s="3"/>
       <c r="AJ44" s="3"/>
       <c r="AK44" s="10" t="s">
@@ -5139,14 +5373,14 @@
       <c r="BB44" s="23"/>
       <c r="BC44" s="4"/>
     </row>
-    <row r="45" spans="1:55" s="1" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
-        <v>42</v>
-      </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="47" t="s">
-        <v>56</v>
+        <v>43</v>
+      </c>
+      <c r="B45" s="64"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>0</v>
@@ -5164,7 +5398,9 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
+      <c r="O45" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P45" s="10" t="s">
         <v>1</v>
       </c>
@@ -5173,7 +5409,7 @@
       </c>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
+      <c r="T45" s="23"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="10" t="s">
@@ -5182,8 +5418,10 @@
       <c r="X45" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y45" s="32"/>
-      <c r="Z45" s="33"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
@@ -5195,7 +5433,9 @@
       </c>
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
-      <c r="AH45" s="3"/>
+      <c r="AH45" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI45" s="3"/>
       <c r="AJ45" s="3"/>
       <c r="AK45" s="10" t="s">
@@ -5230,105 +5470,75 @@
       <c r="BB45" s="23"/>
       <c r="BC45" s="4"/>
     </row>
-    <row r="46" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:55" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
-        <v>43</v>
-      </c>
-      <c r="B46" s="55"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B46" s="64"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="2"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
+      <c r="T46" s="23"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
-      <c r="W46" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="X46" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y46" s="32"/>
-      <c r="Z46" s="33"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="29"/>
+      <c r="Z46" s="10"/>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
-      <c r="AD46" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE46" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
       <c r="AF46" s="3"/>
       <c r="AG46" s="3"/>
-      <c r="AH46" s="3"/>
+      <c r="AH46" s="10"/>
       <c r="AI46" s="3"/>
       <c r="AJ46" s="3"/>
-      <c r="AK46" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL46" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="AK46" s="10"/>
+      <c r="AL46" s="10"/>
       <c r="AM46" s="3"/>
       <c r="AN46" s="3"/>
       <c r="AO46" s="3"/>
       <c r="AP46" s="3"/>
       <c r="AQ46" s="3"/>
-      <c r="AR46" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS46" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="AR46" s="10"/>
+      <c r="AS46" s="10"/>
       <c r="AT46" s="3"/>
       <c r="AU46" s="3"/>
       <c r="AV46" s="3"/>
       <c r="AW46" s="3"/>
       <c r="AX46" s="3"/>
-      <c r="AY46" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ46" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="AY46" s="10"/>
+      <c r="AZ46" s="10"/>
       <c r="BA46" s="3"/>
       <c r="BB46" s="23"/>
       <c r="BC46" s="4"/>
     </row>
-    <row r="47" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
-        <v>44</v>
-      </c>
-      <c r="B47" s="55"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="43" t="s">
-        <v>58</v>
+        <v>45</v>
+      </c>
+      <c r="B47" s="64"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="37" t="s">
+        <v>49</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>0</v>
@@ -5346,7 +5556,9 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
+      <c r="O47" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P47" s="10" t="s">
         <v>1</v>
       </c>
@@ -5355,7 +5567,7 @@
       </c>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
+      <c r="T47" s="23"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="10" t="s">
@@ -5364,8 +5576,10 @@
       <c r="X47" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y47" s="32"/>
-      <c r="Z47" s="33"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
@@ -5377,7 +5591,9 @@
       </c>
       <c r="AF47" s="3"/>
       <c r="AG47" s="3"/>
-      <c r="AH47" s="3"/>
+      <c r="AH47" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI47" s="3"/>
       <c r="AJ47" s="3"/>
       <c r="AK47" s="10" t="s">
@@ -5412,14 +5628,14 @@
       <c r="BB47" s="23"/>
       <c r="BC47" s="4"/>
     </row>
-    <row r="48" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
-        <v>45</v>
-      </c>
-      <c r="B48" s="55"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="47" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="B48" s="64"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="41" t="s">
+        <v>50</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>0</v>
@@ -5437,7 +5653,9 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
+      <c r="O48" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P48" s="10" t="s">
         <v>1</v>
       </c>
@@ -5446,7 +5664,7 @@
       </c>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
+      <c r="T48" s="23"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="10" t="s">
@@ -5455,8 +5673,10 @@
       <c r="X48" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y48" s="32"/>
-      <c r="Z48" s="33"/>
+      <c r="Y48" s="29"/>
+      <c r="Z48" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
@@ -5468,7 +5688,9 @@
       </c>
       <c r="AF48" s="3"/>
       <c r="AG48" s="3"/>
-      <c r="AH48" s="3"/>
+      <c r="AH48" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI48" s="3"/>
       <c r="AJ48" s="3"/>
       <c r="AK48" s="10" t="s">
@@ -5503,14 +5725,14 @@
       <c r="BB48" s="23"/>
       <c r="BC48" s="4"/>
     </row>
-    <row r="49" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
-        <v>46</v>
-      </c>
-      <c r="B49" s="55"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="43" t="s">
-        <v>16</v>
+        <v>47</v>
+      </c>
+      <c r="B49" s="64"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="37" t="s">
+        <v>15</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>0</v>
@@ -5528,7 +5750,9 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
+      <c r="O49" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P49" s="10" t="s">
         <v>1</v>
       </c>
@@ -5537,7 +5761,7 @@
       </c>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
+      <c r="T49" s="23"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="10" t="s">
@@ -5546,8 +5770,10 @@
       <c r="X49" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y49" s="32"/>
-      <c r="Z49" s="33"/>
+      <c r="Y49" s="29"/>
+      <c r="Z49" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
@@ -5559,7 +5785,9 @@
       </c>
       <c r="AF49" s="3"/>
       <c r="AG49" s="3"/>
-      <c r="AH49" s="3"/>
+      <c r="AH49" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI49" s="3"/>
       <c r="AJ49" s="3"/>
       <c r="AK49" s="10" t="s">
@@ -5593,14 +5821,14 @@
       <c r="BA49" s="3"/>
       <c r="BB49" s="23"/>
     </row>
-    <row r="50" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
-        <v>47</v>
-      </c>
-      <c r="B50" s="55"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="43" t="s">
-        <v>67</v>
+        <v>48</v>
+      </c>
+      <c r="B50" s="64"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="37" t="s">
+        <v>58</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>0</v>
@@ -5618,7 +5846,9 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
+      <c r="O50" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P50" s="10" t="s">
         <v>1</v>
       </c>
@@ -5627,7 +5857,7 @@
       </c>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
+      <c r="T50" s="23"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="10" t="s">
@@ -5636,8 +5866,10 @@
       <c r="X50" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y50" s="32"/>
-      <c r="Z50" s="33"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
@@ -5649,7 +5881,9 @@
       </c>
       <c r="AF50" s="3"/>
       <c r="AG50" s="3"/>
-      <c r="AH50" s="3"/>
+      <c r="AH50" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI50" s="3"/>
       <c r="AJ50" s="3"/>
       <c r="AK50" s="10" t="s">
@@ -5683,14 +5917,14 @@
       <c r="BA50" s="3"/>
       <c r="BB50" s="23"/>
     </row>
-    <row r="51" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
-        <v>48</v>
-      </c>
-      <c r="B51" s="55"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="43" t="s">
-        <v>68</v>
+        <v>49</v>
+      </c>
+      <c r="B51" s="64"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="37" t="s">
+        <v>59</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>0</v>
@@ -5708,7 +5942,9 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
+      <c r="O51" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P51" s="10" t="s">
         <v>1</v>
       </c>
@@ -5717,7 +5953,7 @@
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
+      <c r="T51" s="23"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="10" t="s">
@@ -5726,8 +5962,10 @@
       <c r="X51" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y51" s="32"/>
-      <c r="Z51" s="33"/>
+      <c r="Y51" s="29"/>
+      <c r="Z51" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
@@ -5739,7 +5977,9 @@
       </c>
       <c r="AF51" s="3"/>
       <c r="AG51" s="3"/>
-      <c r="AH51" s="3"/>
+      <c r="AH51" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI51" s="3"/>
       <c r="AJ51" s="3"/>
       <c r="AK51" s="10" t="s">
@@ -5773,14 +6013,14 @@
       <c r="BA51" s="3"/>
       <c r="BB51" s="23"/>
     </row>
-    <row r="52" spans="1:55" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
-        <v>49</v>
-      </c>
-      <c r="B52" s="55"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="43" t="s">
-        <v>69</v>
+        <v>50</v>
+      </c>
+      <c r="B52" s="64"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="37" t="s">
+        <v>60</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>0</v>
@@ -5798,7 +6038,9 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
+      <c r="O52" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P52" s="10" t="s">
         <v>1</v>
       </c>
@@ -5807,7 +6049,7 @@
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
+      <c r="T52" s="23"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="10" t="s">
@@ -5816,8 +6058,10 @@
       <c r="X52" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y52" s="32"/>
-      <c r="Z52" s="33"/>
+      <c r="Y52" s="29"/>
+      <c r="Z52" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
@@ -5829,7 +6073,9 @@
       </c>
       <c r="AF52" s="3"/>
       <c r="AG52" s="3"/>
-      <c r="AH52" s="3"/>
+      <c r="AH52" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI52" s="3"/>
       <c r="AJ52" s="3"/>
       <c r="AK52" s="10" t="s">
@@ -5863,14 +6109,14 @@
       <c r="BA52" s="3"/>
       <c r="BB52" s="23"/>
     </row>
-    <row r="53" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
-        <v>50</v>
-      </c>
-      <c r="B53" s="55"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="43" t="s">
-        <v>72</v>
+        <v>51</v>
+      </c>
+      <c r="B53" s="64"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>0</v>
@@ -5888,7 +6134,9 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
+      <c r="O53" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P53" s="10" t="s">
         <v>1</v>
       </c>
@@ -5897,7 +6145,7 @@
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
+      <c r="T53" s="23"/>
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="10" t="s">
@@ -5906,8 +6154,10 @@
       <c r="X53" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y53" s="32"/>
-      <c r="Z53" s="33"/>
+      <c r="Y53" s="29"/>
+      <c r="Z53" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
       <c r="AC53" s="3"/>
@@ -5919,7 +6169,9 @@
       </c>
       <c r="AF53" s="3"/>
       <c r="AG53" s="3"/>
-      <c r="AH53" s="3"/>
+      <c r="AH53" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI53" s="3"/>
       <c r="AJ53" s="3"/>
       <c r="AK53" s="10" t="s">
@@ -5953,14 +6205,14 @@
       <c r="BA53" s="3"/>
       <c r="BB53" s="23"/>
     </row>
-    <row r="54" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
-        <v>51</v>
-      </c>
-      <c r="B54" s="55"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="43" t="s">
-        <v>71</v>
+        <v>52</v>
+      </c>
+      <c r="B54" s="64"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="37" t="s">
+        <v>62</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>0</v>
@@ -5978,7 +6230,9 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
+      <c r="O54" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P54" s="10" t="s">
         <v>1</v>
       </c>
@@ -5987,7 +6241,7 @@
       </c>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
+      <c r="T54" s="23"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="10" t="s">
@@ -5996,8 +6250,10 @@
       <c r="X54" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y54" s="32"/>
-      <c r="Z54" s="33"/>
+      <c r="Y54" s="29"/>
+      <c r="Z54" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
       <c r="AC54" s="3"/>
@@ -6009,7 +6265,9 @@
       </c>
       <c r="AF54" s="3"/>
       <c r="AG54" s="3"/>
-      <c r="AH54" s="3"/>
+      <c r="AH54" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI54" s="3"/>
       <c r="AJ54" s="3"/>
       <c r="AK54" s="10" t="s">
@@ -6043,14 +6301,14 @@
       <c r="BA54" s="3"/>
       <c r="BB54" s="23"/>
     </row>
-    <row r="55" spans="1:55" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:55" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7">
-        <v>52</v>
-      </c>
-      <c r="B55" s="56"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="43" t="s">
-        <v>70</v>
+        <v>53</v>
+      </c>
+      <c r="B55" s="65"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="37" t="s">
+        <v>61</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>0</v>
@@ -6068,7 +6326,9 @@
       <c r="L55" s="15"/>
       <c r="M55" s="15"/>
       <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
+      <c r="O55" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="P55" s="14" t="s">
         <v>1</v>
       </c>
@@ -6077,7 +6337,7 @@
       </c>
       <c r="R55" s="15"/>
       <c r="S55" s="15"/>
-      <c r="T55" s="15"/>
+      <c r="T55" s="21"/>
       <c r="U55" s="15"/>
       <c r="V55" s="15"/>
       <c r="W55" s="14" t="s">
@@ -6086,8 +6346,10 @@
       <c r="X55" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="Y55" s="28"/>
-      <c r="Z55" s="29"/>
+      <c r="Y55" s="27"/>
+      <c r="Z55" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="AA55" s="15"/>
       <c r="AB55" s="15"/>
       <c r="AC55" s="15"/>
@@ -6099,7 +6361,9 @@
       </c>
       <c r="AF55" s="15"/>
       <c r="AG55" s="15"/>
-      <c r="AH55" s="15"/>
+      <c r="AH55" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="AI55" s="15"/>
       <c r="AJ55" s="15"/>
       <c r="AK55" s="14" t="s">
@@ -6133,17 +6397,17 @@
       <c r="BA55" s="15"/>
       <c r="BB55" s="21"/>
     </row>
-    <row r="56" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
-        <v>53</v>
-      </c>
-      <c r="B56" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" s="61"/>
+      <c r="C56" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="44"/>
       <c r="E56" s="16" t="s">
         <v>0</v>
       </c>
@@ -6160,7 +6424,9 @@
       <c r="L56" s="17"/>
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
+      <c r="O56" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="P56" s="18" t="s">
         <v>1</v>
       </c>
@@ -6169,7 +6435,7 @@
       </c>
       <c r="R56" s="17"/>
       <c r="S56" s="17"/>
-      <c r="T56" s="17"/>
+      <c r="T56" s="22"/>
       <c r="U56" s="17"/>
       <c r="V56" s="17"/>
       <c r="W56" s="18" t="s">
@@ -6178,8 +6444,10 @@
       <c r="X56" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="Y56" s="30"/>
-      <c r="Z56" s="31"/>
+      <c r="Y56" s="28"/>
+      <c r="Z56" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="AA56" s="17"/>
       <c r="AB56" s="17"/>
       <c r="AC56" s="17"/>
@@ -6191,7 +6459,9 @@
       </c>
       <c r="AF56" s="17"/>
       <c r="AG56" s="17"/>
-      <c r="AH56" s="17"/>
+      <c r="AH56" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="AI56" s="17"/>
       <c r="AJ56" s="17"/>
       <c r="AK56" s="18" t="s">
@@ -6200,11 +6470,11 @@
       <c r="AL56" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AM56" s="36"/>
-      <c r="AN56" s="36"/>
-      <c r="AO56" s="36"/>
-      <c r="AP56" s="36"/>
-      <c r="AQ56" s="36"/>
+      <c r="AM56" s="32"/>
+      <c r="AN56" s="32"/>
+      <c r="AO56" s="32"/>
+      <c r="AP56" s="32"/>
+      <c r="AQ56" s="32"/>
       <c r="AR56" s="18" t="s">
         <v>1</v>
       </c>
@@ -6226,15 +6496,15 @@
       <c r="BB56" s="22"/>
       <c r="BC56" s="4"/>
     </row>
-    <row r="57" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
-        <v>54</v>
-      </c>
-      <c r="B57" s="63"/>
-      <c r="C57" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" s="57"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="48"/>
+      <c r="C57" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="46"/>
       <c r="E57" s="2" t="s">
         <v>0</v>
       </c>
@@ -6251,7 +6521,9 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
+      <c r="O57" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P57" s="10" t="s">
         <v>1</v>
       </c>
@@ -6260,7 +6532,7 @@
       </c>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
+      <c r="T57" s="23"/>
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="10" t="s">
@@ -6269,8 +6541,10 @@
       <c r="X57" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y57" s="32"/>
-      <c r="Z57" s="33"/>
+      <c r="Y57" s="29"/>
+      <c r="Z57" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
@@ -6282,7 +6556,9 @@
       </c>
       <c r="AF57" s="3"/>
       <c r="AG57" s="3"/>
-      <c r="AH57" s="3"/>
+      <c r="AH57" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI57" s="3"/>
       <c r="AJ57" s="3"/>
       <c r="AK57" s="10" t="s">
@@ -6291,11 +6567,11 @@
       <c r="AL57" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AM57" s="34"/>
-      <c r="AN57" s="34"/>
-      <c r="AO57" s="34"/>
-      <c r="AP57" s="34"/>
-      <c r="AQ57" s="34"/>
+      <c r="AM57" s="30"/>
+      <c r="AN57" s="30"/>
+      <c r="AO57" s="30"/>
+      <c r="AP57" s="30"/>
+      <c r="AQ57" s="30"/>
       <c r="AR57" s="10" t="s">
         <v>1</v>
       </c>
@@ -6317,15 +6593,15 @@
       <c r="BB57" s="23"/>
       <c r="BC57" s="4"/>
     </row>
-    <row r="58" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
-        <v>55</v>
-      </c>
-      <c r="B58" s="64"/>
-      <c r="C58" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="49"/>
+      <c r="C58" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="57"/>
+      <c r="D58" s="46"/>
       <c r="E58" s="2" t="s">
         <v>0</v>
       </c>
@@ -6342,7 +6618,9 @@
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
+      <c r="O58" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="P58" s="10" t="s">
         <v>1</v>
       </c>
@@ -6351,7 +6629,7 @@
       </c>
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
+      <c r="T58" s="23"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="10" t="s">
@@ -6360,8 +6638,10 @@
       <c r="X58" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Y58" s="32"/>
-      <c r="Z58" s="33"/>
+      <c r="Y58" s="29"/>
+      <c r="Z58" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
@@ -6373,7 +6653,9 @@
       </c>
       <c r="AF58" s="3"/>
       <c r="AG58" s="3"/>
-      <c r="AH58" s="3"/>
+      <c r="AH58" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="AI58" s="3"/>
       <c r="AJ58" s="3"/>
       <c r="AK58" s="10" t="s">
@@ -6382,11 +6664,11 @@
       <c r="AL58" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AM58" s="34"/>
-      <c r="AN58" s="34"/>
-      <c r="AO58" s="34"/>
-      <c r="AP58" s="34"/>
-      <c r="AQ58" s="34"/>
+      <c r="AM58" s="30"/>
+      <c r="AN58" s="30"/>
+      <c r="AO58" s="30"/>
+      <c r="AP58" s="30"/>
+      <c r="AQ58" s="30"/>
       <c r="AR58" s="10" t="s">
         <v>1</v>
       </c>
@@ -6408,15 +6690,15 @@
       <c r="BB58" s="23"/>
       <c r="BC58" s="4"/>
     </row>
-    <row r="59" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
-        <v>56</v>
-      </c>
-      <c r="B59" s="65"/>
-      <c r="C59" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="D59" s="48"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="50"/>
+      <c r="C59" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="45"/>
       <c r="E59" s="12" t="s">
         <v>0</v>
       </c>
@@ -6433,7 +6715,9 @@
       <c r="L59" s="15"/>
       <c r="M59" s="15"/>
       <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
+      <c r="O59" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="P59" s="14" t="s">
         <v>1</v>
       </c>
@@ -6442,7 +6726,7 @@
       </c>
       <c r="R59" s="15"/>
       <c r="S59" s="15"/>
-      <c r="T59" s="15"/>
+      <c r="T59" s="21"/>
       <c r="U59" s="15"/>
       <c r="V59" s="15"/>
       <c r="W59" s="14" t="s">
@@ -6451,8 +6735,10 @@
       <c r="X59" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="29"/>
+      <c r="Y59" s="27"/>
+      <c r="Z59" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="AA59" s="15"/>
       <c r="AB59" s="15"/>
       <c r="AC59" s="15"/>
@@ -6464,7 +6750,9 @@
       </c>
       <c r="AF59" s="15"/>
       <c r="AG59" s="15"/>
-      <c r="AH59" s="15"/>
+      <c r="AH59" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="AI59" s="15"/>
       <c r="AJ59" s="15"/>
       <c r="AK59" s="14" t="s">
@@ -6473,11 +6761,11 @@
       <c r="AL59" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AM59" s="35"/>
-      <c r="AN59" s="35"/>
-      <c r="AO59" s="35"/>
-      <c r="AP59" s="35"/>
-      <c r="AQ59" s="35"/>
+      <c r="AM59" s="31"/>
+      <c r="AN59" s="31"/>
+      <c r="AO59" s="31"/>
+      <c r="AP59" s="31"/>
+      <c r="AQ59" s="31"/>
       <c r="AR59" s="14" t="s">
         <v>1</v>
       </c>
@@ -6499,17 +6787,17 @@
       <c r="BB59" s="21"/>
       <c r="BC59" s="4"/>
     </row>
-    <row r="60" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
-        <v>57</v>
-      </c>
-      <c r="B60" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" s="61"/>
+      <c r="C60" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="44"/>
       <c r="E60" s="16" t="s">
         <v>0</v>
       </c>
@@ -6526,40 +6814,46 @@
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
       <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
+      <c r="O60" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="P60" s="18" t="s">
         <v>1</v>
       </c>
       <c r="Q60" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="R60" s="36"/>
-      <c r="S60" s="36"/>
-      <c r="T60" s="36"/>
-      <c r="U60" s="36"/>
-      <c r="V60" s="36"/>
+      <c r="R60" s="32"/>
+      <c r="S60" s="32"/>
+      <c r="T60" s="22"/>
+      <c r="U60" s="32"/>
+      <c r="V60" s="32"/>
       <c r="W60" s="18" t="s">
         <v>1</v>
       </c>
       <c r="X60" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="Y60" s="38"/>
-      <c r="Z60" s="39"/>
-      <c r="AA60" s="36"/>
-      <c r="AB60" s="36"/>
-      <c r="AC60" s="36"/>
+      <c r="Y60" s="34"/>
+      <c r="Z60" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA60" s="32"/>
+      <c r="AB60" s="32"/>
+      <c r="AC60" s="32"/>
       <c r="AD60" s="18" t="s">
         <v>1</v>
       </c>
       <c r="AE60" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AF60" s="36"/>
-      <c r="AG60" s="36"/>
-      <c r="AH60" s="36"/>
-      <c r="AI60" s="36"/>
-      <c r="AJ60" s="36"/>
+      <c r="AF60" s="32"/>
+      <c r="AG60" s="32"/>
+      <c r="AH60" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI60" s="32"/>
+      <c r="AJ60" s="32"/>
       <c r="AK60" s="18" t="s">
         <v>1</v>
       </c>
@@ -6592,15 +6886,15 @@
       <c r="BB60" s="22"/>
       <c r="BC60" s="4"/>
     </row>
-    <row r="61" spans="1:55" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:55" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
-        <v>58</v>
-      </c>
-      <c r="B61" s="56"/>
-      <c r="C61" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61" s="48"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="43"/>
+      <c r="C61" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="45"/>
       <c r="E61" s="12" t="s">
         <v>0</v>
       </c>
@@ -6617,40 +6911,46 @@
       <c r="L61" s="15"/>
       <c r="M61" s="15"/>
       <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
+      <c r="O61" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="P61" s="14" t="s">
         <v>1</v>
       </c>
       <c r="Q61" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="R61" s="35"/>
-      <c r="S61" s="35"/>
-      <c r="T61" s="35"/>
-      <c r="U61" s="35"/>
-      <c r="V61" s="35"/>
+      <c r="R61" s="31"/>
+      <c r="S61" s="31"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="31"/>
+      <c r="V61" s="31"/>
       <c r="W61" s="14" t="s">
         <v>1</v>
       </c>
       <c r="X61" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="Y61" s="40"/>
-      <c r="Z61" s="41"/>
-      <c r="AA61" s="35"/>
-      <c r="AB61" s="35"/>
-      <c r="AC61" s="35"/>
+      <c r="Y61" s="35"/>
+      <c r="Z61" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="31"/>
+      <c r="AB61" s="31"/>
+      <c r="AC61" s="31"/>
       <c r="AD61" s="14" t="s">
         <v>1</v>
       </c>
       <c r="AE61" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AF61" s="35"/>
-      <c r="AG61" s="35"/>
-      <c r="AH61" s="35"/>
-      <c r="AI61" s="35"/>
-      <c r="AJ61" s="35"/>
+      <c r="AF61" s="31"/>
+      <c r="AG61" s="31"/>
+      <c r="AH61" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI61" s="31"/>
+      <c r="AJ61" s="31"/>
       <c r="AK61" s="14" t="s">
         <v>1</v>
       </c>
@@ -6682,17 +6982,17 @@
       <c r="BA61" s="15"/>
       <c r="BB61" s="21"/>
     </row>
-    <row r="62" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:55" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
-        <v>59</v>
-      </c>
-      <c r="B62" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="D62" s="61"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="44"/>
       <c r="E62" s="16" t="s">
         <v>0</v>
       </c>
@@ -6709,7 +7009,9 @@
       <c r="L62" s="17"/>
       <c r="M62" s="17"/>
       <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
+      <c r="O62" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="P62" s="18" t="s">
         <v>1</v>
       </c>
@@ -6718,7 +7020,7 @@
       </c>
       <c r="R62" s="17"/>
       <c r="S62" s="17"/>
-      <c r="T62" s="17"/>
+      <c r="T62" s="22"/>
       <c r="U62" s="17"/>
       <c r="V62" s="17"/>
       <c r="W62" s="18" t="s">
@@ -6727,8 +7029,10 @@
       <c r="X62" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="Y62" s="30"/>
-      <c r="Z62" s="31"/>
+      <c r="Y62" s="28"/>
+      <c r="Z62" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="AA62" s="17"/>
       <c r="AB62" s="17"/>
       <c r="AC62" s="17"/>
@@ -6740,7 +7044,9 @@
       </c>
       <c r="AF62" s="17"/>
       <c r="AG62" s="17"/>
-      <c r="AH62" s="17"/>
+      <c r="AH62" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="AI62" s="17"/>
       <c r="AJ62" s="17"/>
       <c r="AK62" s="18" t="s">
@@ -6760,11 +7066,11 @@
       <c r="AS62" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AT62" s="36"/>
-      <c r="AU62" s="36"/>
-      <c r="AV62" s="36"/>
-      <c r="AW62" s="36"/>
-      <c r="AX62" s="36"/>
+      <c r="AT62" s="32"/>
+      <c r="AU62" s="32"/>
+      <c r="AV62" s="32"/>
+      <c r="AW62" s="32"/>
+      <c r="AX62" s="32"/>
       <c r="AY62" s="18" t="s">
         <v>1</v>
       </c>
@@ -6775,15 +7081,15 @@
       <c r="BB62" s="22"/>
       <c r="BC62" s="4"/>
     </row>
-    <row r="63" spans="1:55" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:55" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
-        <v>60</v>
-      </c>
-      <c r="B63" s="56"/>
-      <c r="C63" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="D63" s="48"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="43"/>
+      <c r="C63" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="45"/>
       <c r="E63" s="12" t="s">
         <v>0</v>
       </c>
@@ -6800,7 +7106,9 @@
       <c r="L63" s="15"/>
       <c r="M63" s="15"/>
       <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
+      <c r="O63" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="P63" s="14" t="s">
         <v>1</v>
       </c>
@@ -6809,7 +7117,7 @@
       </c>
       <c r="R63" s="15"/>
       <c r="S63" s="15"/>
-      <c r="T63" s="15"/>
+      <c r="T63" s="21"/>
       <c r="U63" s="15"/>
       <c r="V63" s="15"/>
       <c r="W63" s="14" t="s">
@@ -6818,8 +7126,10 @@
       <c r="X63" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="Y63" s="28"/>
-      <c r="Z63" s="29"/>
+      <c r="Y63" s="27"/>
+      <c r="Z63" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="AA63" s="15"/>
       <c r="AB63" s="15"/>
       <c r="AC63" s="15"/>
@@ -6831,7 +7141,9 @@
       </c>
       <c r="AF63" s="15"/>
       <c r="AG63" s="15"/>
-      <c r="AH63" s="15"/>
+      <c r="AH63" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="AI63" s="15"/>
       <c r="AJ63" s="15"/>
       <c r="AK63" s="14" t="s">
@@ -6855,19 +7167,38 @@
       <c r="AU63" s="15"/>
       <c r="AV63" s="15"/>
       <c r="AW63" s="15"/>
-      <c r="AX63" s="35"/>
-      <c r="AY63" s="37"/>
-      <c r="AZ63" s="37"/>
-      <c r="BA63" s="35"/>
+      <c r="AX63" s="31"/>
+      <c r="AY63" s="33"/>
+      <c r="AZ63" s="33"/>
+      <c r="BA63" s="31"/>
       <c r="BB63" s="21"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B12:B55"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C34:C55"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:C33"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A1:BB1"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:BB2"/>
+    <mergeCell ref="B2:C3"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="C63:D63"/>
@@ -6879,25 +7210,6 @@
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A1:BB1"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:BB2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:C34"/>
-    <mergeCell ref="B12:B55"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C35:C55"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
